--- a/주간보고.xlsx
+++ b/주간보고.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="128">
   <si>
     <r>
       <t>시스템명</t>
@@ -2929,6 +2929,15 @@
   </si>
   <si>
     <t>노무법인 회의 참여</t>
+  </si>
+  <si>
+    <t>주간보고 1.</t>
+  </si>
+  <si>
+    <t>주간보고 2.</t>
+  </si>
+  <si>
+    <t>통상보고 3</t>
   </si>
 </sst>
 </file>
@@ -4138,8 +4147,12 @@
     </row>
     <row r="12" spans="3:6" ht="15" thickBot="1">
       <c r="C12" s="64"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="59"/>
+      <c r="D12" s="54" t="s">
+        <v>109</v>
+      </c>
+      <c r="E12" s="59" t="s">
+        <v>109</v>
+      </c>
       <c r="F12" s="78"/>
     </row>
     <row r="13" spans="3:6" ht="23" customHeight="1">
@@ -4147,80 +4160,80 @@
         <v>105</v>
       </c>
       <c r="D13" s="82" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="E13" s="46" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="F13" s="55"/>
     </row>
     <row r="14" spans="3:6" ht="32.5" customHeight="1">
       <c r="C14" s="63"/>
       <c r="D14" s="83" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E14" s="45" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F14" s="55"/>
     </row>
     <row r="15" spans="3:6" ht="38" customHeight="1">
       <c r="C15" s="63"/>
       <c r="D15" s="47" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E15" s="47" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F15" s="55"/>
     </row>
     <row r="16" spans="3:6">
       <c r="C16" s="63"/>
       <c r="D16" s="53" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E16" s="57" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F16" s="55"/>
     </row>
     <row r="17" spans="3:6">
       <c r="C17" s="63"/>
       <c r="D17" s="53" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="E17" s="47" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="F17" s="55"/>
     </row>
     <row r="18" spans="3:6">
       <c r="C18" s="63"/>
       <c r="D18" s="53" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="E18" s="47" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="F18" s="55"/>
     </row>
     <row r="19" spans="3:6">
       <c r="C19" s="63"/>
       <c r="D19" s="53" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E19" s="61" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F19" s="55"/>
     </row>
     <row r="20" spans="3:6">
       <c r="C20" s="63"/>
       <c r="D20" s="53" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E20" s="61" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F20" s="55"/>
     </row>
@@ -4237,50 +4250,50 @@
     <row r="22" spans="3:6">
       <c r="C22" s="63"/>
       <c r="D22" s="53" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E22" s="61" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F22" s="55"/>
     </row>
     <row r="23" spans="3:6">
       <c r="C23" s="63"/>
       <c r="D23" s="53" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E23" s="61" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F23" s="55"/>
     </row>
     <row r="24" spans="3:6">
       <c r="C24" s="63"/>
       <c r="D24" s="53" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E24" s="61" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F24" s="55"/>
     </row>
     <row r="25" spans="3:6">
       <c r="C25" s="63"/>
       <c r="D25" s="53" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="E25" s="61" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="F25" s="55"/>
     </row>
     <row r="26" spans="3:6" ht="15" thickBot="1">
       <c r="C26" s="64"/>
       <c r="D26" s="53" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="E26" s="59" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="F26" s="55"/>
     </row>
